--- a/data/trans_camb/P42_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P42_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-16,77</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-22,69</t>
+          <t>-5,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-19,26</t>
+          <t>-5,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,45</t>
+          <t>-6,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-18,84</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-18,84</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-13,9</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-21,35</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-19,79</t>
+          <t>-2,96</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-4,65</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-4,49</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-5,1</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-33,67; -0,89</t>
+          <t>-8,89; 0,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-37,86; -9,38</t>
+          <t>-10,15; -2,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-35,23; -0,14</t>
+          <t>-9,32; -0,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,96; 6,42</t>
+          <t>-10,86; -3,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-35,33; -8,11</t>
+          <t>-4,97; 1,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,49; -7,22</t>
+          <t>-7,42; -1,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,19; -2,7</t>
+          <t>-7,07; -1,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-32,27; -11,88</t>
+          <t>-7,5; -1,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-30,03; -7,42</t>
+          <t>-5,94; -0,29</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-7,71; -2,53</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,34; -2,12</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-7,96; -3,08</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-66,78%</t>
+          <t>-64,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-90,34%</t>
+          <t>-86,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-76,71%</t>
+          <t>-81,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-50,16%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>-45,05%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-61,28%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-94,08%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-87,21%</t>
+          <t>-58,11%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-91,15%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-88,03%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-93,13; 7,67</t>
+          <t>-100,0; 23,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -10,41</t>
+          <t>-100,0; -13,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 74,98</t>
+          <t>-100,0; 31,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-91,57; 102,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 176,77</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-87,91; -13,67</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -62,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -8,73</t>
+          <t>-86,21; 2,5</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -42,66</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -30,7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-8,96</t>
+          <t>-5,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,83</t>
+          <t>-8,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-15,51</t>
+          <t>-10,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-14,41</t>
+          <t>-12,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-23,25</t>
+          <t>-9,09</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-23,42</t>
+          <t>-14,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-11,58</t>
+          <t>-14,07</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-18,14</t>
+          <t>-17,11</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-19,23</t>
+          <t>-7,34</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-11,35</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-11,98</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-14,63</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 1,97</t>
+          <t>-12,84; 2,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,07; -6,14</t>
+          <t>-16,57; -3,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,24; -8,09</t>
+          <t>-17,2; -4,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,07; -2,81</t>
+          <t>-18,93; -7,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,85; -14,56</t>
+          <t>-15,43; -1,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,61; -14,41</t>
+          <t>-20,39; -8,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,16; -3,96</t>
+          <t>-19,85; -8,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,68; -12,26</t>
+          <t>-23,3; -12,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-25,02; -13,52</t>
+          <t>-12,24; -1,56</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-15,92; -7,06</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-16,4; -7,97</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-18,85; -11,32</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-48,82%</t>
+          <t>-46,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-75,37%</t>
+          <t>-72,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-84,54%</t>
+          <t>-81,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-49,74%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-80,24%</t>
+          <t>-51,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-80,83%</t>
+          <t>-79,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-49,97%</t>
+          <t>-79,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-78,28%</t>
+          <t>-96,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-82,97%</t>
+          <t>-49,22%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-76,15%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-80,34%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-98,16%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-79,85; 21,63</t>
+          <t>-78,9; 57,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-91,79; -45,56</t>
+          <t>-90,75; -39,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-95,32; -56,66</t>
+          <t>-95,51; -48,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-71,33; -8,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-91,29; -60,53</t>
+          <t>-73,61; -6,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-92,01; -61,46</t>
+          <t>-90,33; -55,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-69,93; -16,95</t>
+          <t>-91,31; -55,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-88,5; -62,84</t>
+          <t>-100,0; -80,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-90,85; -68,05</t>
+          <t>-69,08; -2,81</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-88,1; -59,23</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-89,39; -63,07</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -88,92</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>-6,14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-14,77</t>
+          <t>-11,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-15,55</t>
+          <t>-12,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,26</t>
+          <t>-12,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-11,61</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,78</t>
+          <t>-6,79</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-7,32</t>
+          <t>-6,12</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-13,34</t>
+          <t>-9,84</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-13,37</t>
+          <t>-5,3</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-9,02</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-9,01</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-11,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 9,92</t>
+          <t>-12,21; 2,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-23,8; -9,09</t>
+          <t>-17,81; -6,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,85; -9,56</t>
+          <t>-19,11; -7,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,81; -2,22</t>
+          <t>-19,68; -8,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,86; -6,5</t>
+          <t>-8,7; -0,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,71; -5,55</t>
+          <t>-10,69; -3,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 0,29</t>
+          <t>-9,94; -2,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-19,01; -9,38</t>
+          <t>-13,31; -6,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-18,4; -9,45</t>
+          <t>-9,23; -0,9</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-12,63; -6,02</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-12,64; -6,13</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-14,82; -8,57</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-38,16%</t>
+          <t>-46,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-86,93%</t>
+          <t>-85,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-91,53%</t>
+          <t>-90,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-51,25%</t>
+          <t>-97,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-72,08%</t>
+          <t>-45,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-66,93%</t>
+          <t>-68,97%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-44,07%</t>
+          <t>-62,17%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-80,39%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-80,54%</t>
+          <t>-46,03%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-78,32%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-78,17%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-98,43%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-76,33; 91,44</t>
+          <t>-74,49; 48,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-96,2; -63,72</t>
+          <t>-95,29; -56,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-98,02; -76,48</t>
+          <t>-97,71; -71,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-73,68; -13,64</t>
+          <t>-100,0; -78,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-87,66; -47,12</t>
+          <t>-72,84; -2,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-82,16; -40,34</t>
+          <t>-84,91; -39,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-67,46; 10,08</t>
+          <t>-79,91; -30,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-89,26; -66,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-88,71; -67,54</t>
+          <t>-66,49; -5,03</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-88,04; -61,86</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-87,32; -63,3</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -89,65</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-9,16</t>
+          <t>-7,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-14,03</t>
+          <t>-10,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-14,57</t>
+          <t>-11,1</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-8,98</t>
+          <t>-13,18</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-14,25</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-15,47</t>
+          <t>-6,8</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-9,05</t>
+          <t>-7,47</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-14,11</t>
+          <t>-9,55</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-14,94</t>
+          <t>-5,47</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-8,61</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-9,2</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-11,28</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,88; -2,44</t>
+          <t>-14,98; -2,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,33; -8,13</t>
+          <t>-18,22; -6,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-24,18; -9,02</t>
+          <t>-18,34; -7,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,44; -1,7</t>
+          <t>-20,53; -9,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-21,18; -7,91</t>
+          <t>-8,2; 0,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,75; -10,14</t>
+          <t>-10,96; -3,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,6; -3,98</t>
+          <t>-11,14; -3,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-19,84; -10,55</t>
+          <t>-13,1; -6,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-20,45; -10,94</t>
+          <t>-9,69; -2,51</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-12,59; -5,99</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-12,83; -6,66</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-15,07; -8,96</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-53,05%</t>
+          <t>-53,28%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-81,31%</t>
+          <t>-80,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-84,4%</t>
+          <t>-84,2%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-47,83%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-75,91%</t>
+          <t>-42,52%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-82,38%</t>
+          <t>-71,19%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-50,56%</t>
+          <t>-78,2%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-78,84%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-83,46%</t>
+          <t>-48,46%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-76,33%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-81,54%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-76,9; -14,63</t>
+          <t>-77,41; -17,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-92,66; -59,69</t>
+          <t>-92,45; -57,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-93,93; -66,42</t>
+          <t>-94,56; -65,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-72,57; -10,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-89,89; -50,08</t>
+          <t>-70,47; 4,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-92,15; -63,93</t>
+          <t>-87,63; -35,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-68,08; -25,49</t>
+          <t>-91,97; -53,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-88,72; -65,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-91,6; -71,04</t>
+          <t>-68,28; -24,57</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-86,9; -59,09</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-90,23; -68,52</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-9,25</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-12,27</t>
+          <t>-5,69</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-11,47</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-21,85</t>
+          <t>-6,03</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-28,98</t>
+          <t>-5,52</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-26,45</t>
+          <t>-7,09</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-13,38</t>
+          <t>-6,33</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-17,98</t>
+          <t>-7,5</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-16,4</t>
+          <t>-4,91</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-6,38</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-5,83</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-6,75</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-16,49; -2,34</t>
+          <t>-7,94; -1,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-19,14; -6,55</t>
+          <t>-9,28; -2,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-18,38; -5,6</t>
+          <t>-8,92; -2,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-38,54; -5,02</t>
+          <t>-9,38; -3,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-43,85; -15,53</t>
+          <t>-11,39; -0,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-42,95; -12,73</t>
+          <t>-13,44; -3,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-22,45; -6,05</t>
+          <t>-12,44; -2,46</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-26,6; -12,63</t>
+          <t>-13,54; -3,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-24,51; -9,84</t>
+          <t>-8,27; -2,18</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-9,41; -4,08</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-9,25; -3,3</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-9,86; -4,33</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-71,17%</t>
+          <t>-71,77%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-94,42%</t>
+          <t>-94,44%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-88,23%</t>
+          <t>-89,11%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-70,13%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-93,0%</t>
+          <t>-69,87%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-84,9%</t>
+          <t>-89,77%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-69,15%</t>
+          <t>-80,11%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-92,88%</t>
+          <t>-95,03%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-84,71%</t>
+          <t>-70,58%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-91,78%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-83,85%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-97,12%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-93,57; -11,54</t>
+          <t>-93,1; -16,79</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -63,12</t>
+          <t>-100,0; -66,64</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -44,71</t>
+          <t>-100,0; -42,19</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-92,19; -3,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -61,63</t>
+          <t>-94,31; 11,34</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-96,62; -56,9</t>
+          <t>-100,0; -54,75</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-89,19; -30,19</t>
+          <t>-95,9; -30,84</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-98,37; -78,76</t>
+          <t>-100,0; -61,49</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-95,13; -64,62</t>
+          <t>-88,93; -31,58</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -76,21</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-94,46; -59,05</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -77,92</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-16,14</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-33,03</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-33,03</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="H24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-12,51</t>
-        </is>
-      </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-24,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-24,66</t>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-83,34; 36,17</t>
+          <t>-0,83; 1,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-2,11; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-2,1; 0,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
+          <t>-2,13; 0,0</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
+      <c r="H25" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H25" s="2" t="inlineStr">
+      <c r="I25" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-75,54; 24,79</t>
-        </is>
-      </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-75,54; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-75,54; 0,0</t>
+          <t>-0,36; 0,6</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 0,0</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-0,91; 0,0</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 0,0</t>
         </is>
       </c>
     </row>
@@ -1818,7 +2172,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-48,87%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -1833,30 +2187,45 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-50,74%</t>
-        </is>
-      </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>13,29%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="K26" s="2" t="inlineStr">
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
@@ -1914,6 +2283,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-8,84</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-14,67</t>
+          <t>-7,38</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-15,06</t>
+          <t>-7,68</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-11,51</t>
+          <t>-8,91</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-17,51</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-17,33</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-9,96</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-15,85</t>
+          <t>-7,69</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-15,99</t>
+          <t>-4,27</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-6,71</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-6,81</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-8,29</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-13,11; -3,5</t>
+          <t>-7,17; -2,38</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-18,4; -11,45</t>
+          <t>-9,44; -5,39</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-18,9; -11,64</t>
+          <t>-9,81; -5,85</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-15,68; -6,66</t>
+          <t>-10,98; -7,22</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-21,35; -13,92</t>
+          <t>-5,69; -2,15</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-21,24; -13,47</t>
+          <t>-7,63; -4,6</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-13,25; -6,87</t>
+          <t>-7,65; -4,48</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-18,51; -13,46</t>
+          <t>-9,35; -6,39</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-18,68; -13,51</t>
+          <t>-5,72; -2,73</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-8,12; -5,48</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; -5,66</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-9,67; -7,22</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-50,51%</t>
+          <t>-51,73%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-83,82%</t>
+          <t>-82,11%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-86,05%</t>
+          <t>-85,46%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-53,39%</t>
+          <t>-99,18%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-81,19%</t>
+          <t>-50,02%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-80,35%</t>
+          <t>-77,61%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-51,8%</t>
+          <t>-76,26%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-82,45%</t>
+          <t>-98,22%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-83,15%</t>
+          <t>-50,91%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-79,96%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-81,07%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-98,73%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-67,73; -20,32</t>
+          <t>-68,3; -26,89</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-89,9; -74,65</t>
+          <t>-88,94; -68,25</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-91,87; -75,53</t>
+          <t>-91,6; -74,67</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-66,45; -34,78</t>
+          <t>-100,0; -95,77</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-87,61; -72,38</t>
+          <t>-65,12; -30,23</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-86,62; -71,43</t>
+          <t>-85,17; -67,17</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-63,17; -35,54</t>
+          <t>-83,92; -63,97</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-87,22; -76,56</t>
+          <t>-100,0; -93,82</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-87,72; -76,95</t>
+          <t>-61,84; -35,75</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-85,58; -72,79</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-87,12; -74,82</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-99,67; -95,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
